--- a/任务及绩效评价/SE2019春-G11-第七周任务以及绩效评价.xlsx
+++ b/任务及绩效评价/SE2019春-G11-第七周任务以及绩效评价.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="825" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="第六周任务清单" sheetId="4" r:id="rId1"/>
@@ -175,14 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,7 +501,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -514,12 +514,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -554,24 +554,24 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
-        <v>0.65</v>
+      <c r="F3" s="8">
+        <v>0.67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="8"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="8"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="8"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -590,17 +590,17 @@
         <v>4</v>
       </c>
       <c r="F9" s="5">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="8"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -618,8 +618,8 @@
       <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="7">
-        <v>0.76</v>
+      <c r="F14" s="8">
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -636,17 +636,17 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="8"/>
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
